--- a/referências.xlsx
+++ b/referências.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="operador" sheetId="1" r:id="rId1"/>
     <sheet name="destinos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">destinos!$A$1:$I$268</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operador!$A$1:$G$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">destinos!$A$1:$I$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operador!$A$1:$G$141</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="1500">
   <si>
     <t>Iata Code</t>
   </si>
@@ -4492,6 +4492,54 @@
   </si>
   <si>
     <t>LBBJ</t>
+  </si>
+  <si>
+    <t>PEI</t>
+  </si>
+  <si>
+    <t>Pereira-Colômbia</t>
+  </si>
+  <si>
+    <t>SKPE</t>
+  </si>
+  <si>
+    <t>SOD</t>
+  </si>
+  <si>
+    <t>Sorocaba</t>
+  </si>
+  <si>
+    <t>SDCO</t>
+  </si>
+  <si>
+    <t>EUS</t>
+  </si>
+  <si>
+    <t>Eurus</t>
+  </si>
+  <si>
+    <t>Eurus Aviation S.A.P.I. de C.V.</t>
+  </si>
+  <si>
+    <t>1ED</t>
+  </si>
+  <si>
+    <t>Sarpa</t>
+  </si>
+  <si>
+    <t>Servicios Aereos Panamericanos Sarpa S.A.S.</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Vietnam Airlines</t>
+  </si>
+  <si>
+    <t>HVN</t>
+  </si>
+  <si>
+    <t>Vietnam Airlines JSC</t>
   </si>
 </sst>
 </file>
@@ -4849,11 +4897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7902,8 +7950,71 @@
         <v>12</v>
       </c>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G137"/>
+  <autoFilter ref="A1:G141"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7911,11 +8022,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A272" sqref="A272"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15058,8 +15169,62 @@
         <v>1483</v>
       </c>
     </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>1489</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I268"/>
+  <autoFilter ref="A1:I272"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/referências.xlsx
+++ b/referências.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="operador" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">destinos!$A$1:$I$272</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operador!$A$1:$G$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operador!$A$1:$G$145</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="1521">
   <si>
     <t>Iata Code</t>
   </si>
@@ -4540,6 +4540,69 @@
   </si>
   <si>
     <t>Vietnam Airlines JSC</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>HiFly</t>
+  </si>
+  <si>
+    <t>HFM</t>
+  </si>
+  <si>
+    <t>Hi Fly Malta</t>
+  </si>
+  <si>
+    <t>BYJ</t>
+  </si>
+  <si>
+    <t>Beja</t>
+  </si>
+  <si>
+    <t>LPBJ</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Martinair</t>
+  </si>
+  <si>
+    <t>MPH</t>
+  </si>
+  <si>
+    <t>Martinair Holland NV</t>
+  </si>
+  <si>
+    <t>JZ</t>
+  </si>
+  <si>
+    <t>JetSmart (PER)</t>
+  </si>
+  <si>
+    <t>JAP</t>
+  </si>
+  <si>
+    <t>JetSmart Airlines Perú S.A.C</t>
+  </si>
+  <si>
+    <t>AAX</t>
+  </si>
+  <si>
+    <t>Araxá</t>
+  </si>
+  <si>
+    <t>SBAX</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>Anivia</t>
+  </si>
+  <si>
+    <t>Anivia Serviços Aéreos LTDA</t>
   </si>
 </sst>
 </file>
@@ -4897,11 +4960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8013,8 +8076,92 @@
         <v>12</v>
       </c>
     </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G141"/>
+  <autoFilter ref="A1:G145"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8022,11 +8169,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I273"/>
+  <dimension ref="A1:I275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A274" sqref="A274"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A276" sqref="A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15223,6 +15370,60 @@
         <v>1489</v>
       </c>
     </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>1517</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I272"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/referências.xlsx
+++ b/referências.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\5. SLOTS\9. Estadia - Realizado\Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.31.50.43\share3\Estatisticas_Faturamento\5. SLOTS\9. Estadia - Realizado\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,8 +16,8 @@
     <sheet name="destinos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">destinos!$A$1:$I$272</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operador!$A$1:$G$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">destinos!$A$1:$I$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operador!$A$1:$G$146</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="1539">
   <si>
     <t>Iata Code</t>
   </si>
@@ -4603,6 +4603,60 @@
   </si>
   <si>
     <t>Anivia Serviços Aéreos LTDA</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>Sorriso</t>
+  </si>
+  <si>
+    <t>SBSO</t>
+  </si>
+  <si>
+    <t>UKL</t>
+  </si>
+  <si>
+    <t>Ucraine Air</t>
+  </si>
+  <si>
+    <t>Ukraie Air Alliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkyHigh </t>
+  </si>
+  <si>
+    <t>Sky High Aviation Services Dominicana SA dba Sky High</t>
+  </si>
+  <si>
+    <t>SHH</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>KPHL</t>
+  </si>
+  <si>
+    <t>Japan Air Force</t>
+  </si>
+  <si>
+    <t>FAJ</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>Cargojet Airways</t>
+  </si>
+  <si>
+    <t>CJT</t>
+  </si>
+  <si>
+    <t>Cargojet Airways Ltd</t>
   </si>
 </sst>
 </file>
@@ -4960,11 +5014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8160,8 +8214,92 @@
         <v>12</v>
       </c>
     </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G145"/>
+  <autoFilter ref="A1:G146"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8169,24 +8307,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I275"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A276" sqref="A276"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -15424,8 +15562,62 @@
         <v>1517</v>
       </c>
     </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I272"/>
+  <autoFilter ref="A1:I277"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/referências.xlsx
+++ b/referências.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.31.50.43\share3\Estatisticas_Faturamento\5. SLOTS\9. Estadia - Realizado\Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\08 Slots\05 Estadia - Realizado\01 Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="operador" sheetId="1" r:id="rId1"/>
     <sheet name="destinos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">destinos!$A$1:$I$278</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operador!$A$1:$G$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">destinos!$A$1:$I$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">operador!$A$1:$G$152</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1556">
   <si>
     <t>Iata Code</t>
   </si>
@@ -2660,9 +2660,6 @@
   </si>
   <si>
     <t>H8</t>
-  </si>
-  <si>
-    <t>Sky Airline Peru</t>
   </si>
   <si>
     <t>SKX</t>
@@ -4687,6 +4684,30 @@
   </si>
   <si>
     <t>SANR</t>
+  </si>
+  <si>
+    <t>0T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky </t>
+  </si>
+  <si>
+    <t>Omni Air</t>
+  </si>
+  <si>
+    <t>OAE</t>
+  </si>
+  <si>
+    <t>Omni Air International</t>
+  </si>
+  <si>
+    <t>OY</t>
+  </si>
+  <si>
+    <t>NBJ</t>
+  </si>
+  <si>
+    <t>FNBJ</t>
   </si>
 </sst>
 </file>
@@ -5042,11 +5063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+      <selection pane="bottomLeft" activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5908,39 +5929,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -5954,16 +5975,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -5977,112 +5998,112 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G44" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>167</v>
+        <v>816</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>169</v>
+        <v>816</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>12</v>
@@ -6090,16 +6111,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>816</v>
+        <v>173</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -6108,21 +6129,21 @@
         <v>41</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>817</v>
+        <v>177</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -6131,21 +6152,21 @@
         <v>41</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -6159,22 +6180,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>12</v>
@@ -6182,39 +6203,37 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -6226,104 +6245,106 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G52" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G54" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -6332,21 +6353,21 @@
         <v>41</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -6360,22 +6381,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>12</v>
@@ -6383,16 +6404,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -6406,22 +6427,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>12</v>
@@ -6429,22 +6450,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>12</v>
@@ -6452,39 +6473,37 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>231</v>
+        <v>1366</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -6496,16 +6515,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1367</v>
+        <v>237</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -6517,60 +6536,60 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G65" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -6582,16 +6601,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -6603,16 +6622,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -6624,16 +6643,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -6645,16 +6664,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -6666,58 +6685,58 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -6729,16 +6748,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -6750,16 +6769,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -6771,16 +6790,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
@@ -6792,16 +6811,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>285</v>
+        <v>829</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>286</v>
+        <v>830</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>287</v>
+        <v>831</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>288</v>
+        <v>832</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -6813,16 +6832,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
@@ -6834,16 +6853,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>10</v>
@@ -6855,16 +6874,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>839</v>
+        <v>940</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
@@ -6876,58 +6895,58 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>941</v>
+        <v>846</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>846</v>
+        <v>941</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>942</v>
+        <v>853</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -6939,16 +6958,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>851</v>
+        <v>287</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>852</v>
+        <v>286</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>853</v>
+        <v>287</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
@@ -6960,16 +6979,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>287</v>
+        <v>856</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>286</v>
+        <v>857</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>287</v>
+        <v>858</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>10</v>
@@ -6981,16 +7000,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -7002,16 +7021,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>871</v>
+        <v>1549</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -7023,16 +7042,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -7041,19 +7060,20 @@
       <c r="G89" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>894</v>
+        <v>1425</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -7062,14 +7082,13 @@
       <c r="G90" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>1426</v>
+        <v>900</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>900</v>
@@ -7087,16 +7106,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>10</v>
@@ -7108,16 +7127,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>918</v>
+        <v>1271</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>10</v>
@@ -7129,16 +7148,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1272</v>
+        <v>924</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
@@ -7150,16 +7169,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>10</v>
@@ -7171,16 +7190,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>10</v>
@@ -7192,16 +7211,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>930</v>
+        <v>585</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>10</v>
@@ -7213,16 +7232,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>585</v>
+        <v>949</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
@@ -7234,55 +7253,55 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>950</v>
+        <v>967</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>951</v>
+        <v>968</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>971</v>
+        <v>731</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>972</v>
+        <v>731</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>974</v>
@@ -7297,16 +7316,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>731</v>
+        <v>977</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>731</v>
+        <v>979</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>10</v>
@@ -7318,16 +7337,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>10</v>
@@ -7339,16 +7358,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
@@ -7360,16 +7379,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>10</v>
@@ -7381,16 +7400,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>10</v>
@@ -7402,16 +7421,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1013</v>
+        <v>1272</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1011</v>
+        <v>1276</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1010</v>
+        <v>1278</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1012</v>
+        <v>1277</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>10</v>
@@ -7426,13 +7445,13 @@
         <v>1273</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>10</v>
@@ -7444,16 +7463,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>1274</v>
+        <v>1283</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1276</v>
+        <v>1283</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>10</v>
@@ -7465,60 +7484,60 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>1284</v>
+        <v>52</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1284</v>
+        <v>1293</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G110" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>52</v>
+        <v>1326</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1296</v>
+        <v>1327</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1294</v>
+        <v>1321</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1295</v>
+        <v>1328</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1322</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>10</v>
@@ -7530,10 +7549,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>1323</v>
+        <v>1344</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>1323</v>
@@ -7551,7 +7570,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1345</v>
+        <v>851</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>1333</v>
@@ -7560,7 +7579,7 @@
         <v>1324</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>10</v>
@@ -7572,16 +7591,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>851</v>
+        <v>222</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1334</v>
+        <v>223</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1325</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1334</v>
+        <v>223</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>10</v>
@@ -7593,16 +7612,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>222</v>
+        <v>1334</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>223</v>
+        <v>1335</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1326</v>
+        <v>1336</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>223</v>
+        <v>1337</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>10</v>
@@ -7614,16 +7633,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>1335</v>
+        <v>823</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>10</v>
@@ -7635,16 +7654,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>823</v>
+        <v>1345</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>10</v>
@@ -7656,16 +7675,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>10</v>
@@ -7677,16 +7696,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>10</v>
@@ -7698,16 +7717,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>10</v>
@@ -7719,16 +7738,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1360</v>
+        <v>1396</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1361</v>
+        <v>1399</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1362</v>
+        <v>1401</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1363</v>
+        <v>1400</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>10</v>
@@ -7743,13 +7762,13 @@
         <v>1397</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>10</v>
@@ -7764,13 +7783,13 @@
         <v>1398</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>10</v>
@@ -7782,16 +7801,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1399</v>
+        <v>1407</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>10</v>
@@ -7803,16 +7822,16 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>10</v>
@@ -7824,16 +7843,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1413</v>
+        <v>1419</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>10</v>
@@ -7845,16 +7864,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1419</v>
+        <v>1426</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1421</v>
+        <v>1427</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>10</v>
@@ -7866,16 +7885,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>10</v>
@@ -7890,13 +7909,13 @@
         <v>1433</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>10</v>
@@ -7908,16 +7927,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>10</v>
@@ -7929,16 +7948,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>10</v>
@@ -7950,16 +7969,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>1440</v>
+        <v>781</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>10</v>
@@ -7971,58 +7990,58 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>781</v>
+        <v>1454</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1447</v>
+        <v>1455</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1448</v>
+        <v>1456</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>10</v>
@@ -8034,16 +8053,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>10</v>
@@ -8055,16 +8074,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>1466</v>
+        <v>1474</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1467</v>
+        <v>1475</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1466</v>
+        <v>1474</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1468</v>
+        <v>1476</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>10</v>
@@ -8076,16 +8095,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>1475</v>
+        <v>1488</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1476</v>
+        <v>1489</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1475</v>
+        <v>1488</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1477</v>
+        <v>1490</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>10</v>
@@ -8097,16 +8116,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>10</v>
@@ -8118,16 +8137,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>10</v>
@@ -8139,16 +8158,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>10</v>
@@ -8160,16 +8179,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1500</v>
+        <v>1506</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>10</v>
@@ -8181,16 +8200,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>10</v>
@@ -8202,16 +8221,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>10</v>
@@ -8223,16 +8242,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>10</v>
@@ -8244,16 +8263,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>1523</v>
+        <v>327</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>10</v>
@@ -8265,16 +8284,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>327</v>
+        <v>1532</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>10</v>
@@ -8289,13 +8308,13 @@
         <v>1533</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>10</v>
@@ -8307,16 +8326,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1535</v>
+        <v>332</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>10</v>
@@ -8328,27 +8347,50 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>1541</v>
+        <v>1548</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>332</v>
+        <v>144</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1541</v>
+        <v>143</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1542</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F151" s="2"/>
+      <c r="F151" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G151" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G151"/>
+  <autoFilter ref="A1:G152"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8356,11 +8398,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A281" sqref="A281"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8402,7 +8444,7 @@
         <v>296</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -8427,7 +8469,7 @@
         <v>302</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -8452,7 +8494,7 @@
         <v>302</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -8477,7 +8519,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -8502,7 +8544,7 @@
         <v>302</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -8527,7 +8569,7 @@
         <v>302</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -8552,7 +8594,7 @@
         <v>302</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -8577,7 +8619,7 @@
         <v>302</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -8602,7 +8644,7 @@
         <v>302</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -8627,7 +8669,7 @@
         <v>302</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -8652,7 +8694,7 @@
         <v>302</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -8677,7 +8719,7 @@
         <v>302</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -8702,7 +8744,7 @@
         <v>302</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -8727,7 +8769,7 @@
         <v>302</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -8752,7 +8794,7 @@
         <v>302</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -8777,7 +8819,7 @@
         <v>302</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -8802,7 +8844,7 @@
         <v>302</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -8827,7 +8869,7 @@
         <v>302</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -8852,7 +8894,7 @@
         <v>302</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -8877,7 +8919,7 @@
         <v>302</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -8902,7 +8944,7 @@
         <v>302</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -8913,7 +8955,7 @@
         <v>348</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>350</v>
@@ -8927,7 +8969,7 @@
         <v>302</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -8952,7 +8994,7 @@
         <v>302</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -8977,7 +9019,7 @@
         <v>302</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -9002,7 +9044,7 @@
         <v>302</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -9027,7 +9069,7 @@
         <v>302</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -9052,7 +9094,7 @@
         <v>302</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -9081,7 +9123,7 @@
         <v>380</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -9110,7 +9152,7 @@
         <v>380</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -9139,7 +9181,7 @@
         <v>380</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -9168,7 +9210,7 @@
         <v>380</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -9197,7 +9239,7 @@
         <v>380</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -9226,7 +9268,7 @@
         <v>380</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -9255,7 +9297,7 @@
         <v>380</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -9284,7 +9326,7 @@
         <v>380</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -9313,7 +9355,7 @@
         <v>380</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -9342,7 +9384,7 @@
         <v>380</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -9371,7 +9413,7 @@
         <v>380</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -9400,7 +9442,7 @@
         <v>380</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -9429,7 +9471,7 @@
         <v>380</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -9458,7 +9500,7 @@
         <v>380</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -9487,7 +9529,7 @@
         <v>380</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -9516,7 +9558,7 @@
         <v>380</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -9545,7 +9587,7 @@
         <v>380</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -9574,7 +9616,7 @@
         <v>380</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -9603,7 +9645,7 @@
         <v>380</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -9632,7 +9674,7 @@
         <v>380</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -9661,7 +9703,7 @@
         <v>380</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -9690,7 +9732,7 @@
         <v>380</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -9719,7 +9761,7 @@
         <v>380</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -9748,7 +9790,7 @@
         <v>380</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -9777,7 +9819,7 @@
         <v>380</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -9806,7 +9848,7 @@
         <v>380</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -9835,7 +9877,7 @@
         <v>380</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -9864,7 +9906,7 @@
         <v>380</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -9893,7 +9935,7 @@
         <v>380</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -9922,7 +9964,7 @@
         <v>380</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -9951,7 +9993,7 @@
         <v>380</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -9980,7 +10022,7 @@
         <v>380</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -10009,7 +10051,7 @@
         <v>380</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -10038,7 +10080,7 @@
         <v>380</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -10067,7 +10109,7 @@
         <v>380</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -10096,7 +10138,7 @@
         <v>380</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -10125,7 +10167,7 @@
         <v>380</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -10154,7 +10196,7 @@
         <v>380</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -10183,7 +10225,7 @@
         <v>380</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -10212,7 +10254,7 @@
         <v>380</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -10241,7 +10283,7 @@
         <v>380</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -10270,7 +10312,7 @@
         <v>380</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -10299,7 +10341,7 @@
         <v>380</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -10328,7 +10370,7 @@
         <v>380</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -10357,7 +10399,7 @@
         <v>380</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -10386,7 +10428,7 @@
         <v>380</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -10415,7 +10457,7 @@
         <v>380</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -10444,7 +10486,7 @@
         <v>380</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -10473,7 +10515,7 @@
         <v>380</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -10502,7 +10544,7 @@
         <v>380</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -10531,7 +10573,7 @@
         <v>380</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -10542,7 +10584,7 @@
         <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>507</v>
@@ -10556,7 +10598,7 @@
         <v>302</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -10581,7 +10623,7 @@
         <v>302</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -10606,7 +10648,7 @@
         <v>302</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -10617,7 +10659,7 @@
         <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>507</v>
@@ -10631,7 +10673,7 @@
         <v>302</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -10656,7 +10698,7 @@
         <v>302</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -10681,7 +10723,7 @@
         <v>302</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -10706,7 +10748,7 @@
         <v>302</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -10731,7 +10773,7 @@
         <v>302</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -10756,7 +10798,7 @@
         <v>302</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -10781,7 +10823,7 @@
         <v>302</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -10806,7 +10848,7 @@
         <v>302</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -10831,7 +10873,7 @@
         <v>302</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -10856,7 +10898,7 @@
         <v>302</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -10881,7 +10923,7 @@
         <v>302</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -10906,7 +10948,7 @@
         <v>302</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -10931,7 +10973,7 @@
         <v>302</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -10956,7 +10998,7 @@
         <v>302</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -10981,7 +11023,7 @@
         <v>302</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -11006,7 +11048,7 @@
         <v>302</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -11031,7 +11073,7 @@
         <v>302</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -11056,7 +11098,7 @@
         <v>302</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -11081,7 +11123,7 @@
         <v>302</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -11106,7 +11148,7 @@
         <v>302</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -11131,7 +11173,7 @@
         <v>302</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -11156,7 +11198,7 @@
         <v>302</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -11181,7 +11223,7 @@
         <v>302</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -11206,7 +11248,7 @@
         <v>302</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -11231,7 +11273,7 @@
         <v>302</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -11256,7 +11298,7 @@
         <v>302</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -11281,7 +11323,7 @@
         <v>302</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -11306,7 +11348,7 @@
         <v>302</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -11331,7 +11373,7 @@
         <v>302</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -11356,7 +11398,7 @@
         <v>302</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -11381,7 +11423,7 @@
         <v>302</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -11406,7 +11448,7 @@
         <v>302</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -11431,7 +11473,7 @@
         <v>302</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -11442,7 +11484,7 @@
         <v>376</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>378</v>
@@ -11460,7 +11502,7 @@
         <v>380</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -11489,7 +11531,7 @@
         <v>380</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -11518,7 +11560,7 @@
         <v>380</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -11543,7 +11585,7 @@
         <v>302</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -11568,7 +11610,7 @@
         <v>302</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -11597,7 +11639,7 @@
         <v>380</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -11626,7 +11668,7 @@
         <v>380</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -11651,7 +11693,7 @@
         <v>302</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -11680,7 +11722,7 @@
         <v>380</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -11709,7 +11751,7 @@
         <v>380</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -11738,7 +11780,7 @@
         <v>380</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -11767,7 +11809,7 @@
         <v>380</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -11796,7 +11838,7 @@
         <v>380</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -11821,7 +11863,7 @@
         <v>302</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -11846,7 +11888,7 @@
         <v>302</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -11875,7 +11917,7 @@
         <v>380</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -11900,7 +11942,7 @@
         <v>302</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -11925,7 +11967,7 @@
         <v>302</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -11954,7 +11996,7 @@
         <v>380</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -11979,7 +12021,7 @@
         <v>302</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -12008,7 +12050,7 @@
         <v>380</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -12033,7 +12075,7 @@
         <v>302</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -12058,7 +12100,7 @@
         <v>302</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -12083,7 +12125,7 @@
         <v>302</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -12108,7 +12150,7 @@
         <v>302</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -12137,7 +12179,7 @@
         <v>380</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -12162,7 +12204,7 @@
         <v>302</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -12191,7 +12233,7 @@
         <v>380</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -12220,7 +12262,7 @@
         <v>380</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -12249,7 +12291,7 @@
         <v>380</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -12274,7 +12316,7 @@
         <v>302</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -12299,7 +12341,7 @@
         <v>302</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -12324,7 +12366,7 @@
         <v>302</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -12349,7 +12391,7 @@
         <v>302</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -12374,7 +12416,7 @@
         <v>302</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -12385,7 +12427,7 @@
         <v>621</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>623</v>
@@ -12399,7 +12441,7 @@
         <v>302</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -12410,7 +12452,7 @@
         <v>376</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>378</v>
@@ -12428,7 +12470,7 @@
         <v>380</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -12453,7 +12495,7 @@
         <v>302</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -12478,7 +12520,7 @@
         <v>302</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -12503,7 +12545,7 @@
         <v>302</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -12528,7 +12570,7 @@
         <v>302</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -12553,7 +12595,7 @@
         <v>302</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -12578,7 +12620,7 @@
         <v>302</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -12607,7 +12649,7 @@
         <v>380</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -12632,7 +12674,7 @@
         <v>302</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -12657,7 +12699,7 @@
         <v>302</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -12682,7 +12724,7 @@
         <v>302</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -12707,7 +12749,7 @@
         <v>302</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -12736,7 +12778,7 @@
         <v>380</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -12765,7 +12807,7 @@
         <v>380</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -12794,7 +12836,7 @@
         <v>380</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -12823,7 +12865,7 @@
         <v>380</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -12852,7 +12894,7 @@
         <v>380</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -12877,7 +12919,7 @@
         <v>302</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -12906,7 +12948,7 @@
         <v>380</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -12931,7 +12973,7 @@
         <v>302</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -12956,7 +12998,7 @@
         <v>302</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -12981,7 +13023,7 @@
         <v>302</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -13006,7 +13048,7 @@
         <v>302</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -13035,7 +13077,7 @@
         <v>380</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -13060,7 +13102,7 @@
         <v>302</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -13085,7 +13127,7 @@
         <v>302</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -13110,7 +13152,7 @@
         <v>302</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -13135,7 +13177,7 @@
         <v>302</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -13160,7 +13202,7 @@
         <v>302</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -13185,7 +13227,7 @@
         <v>302</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -13210,7 +13252,7 @@
         <v>302</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -13235,7 +13277,7 @@
         <v>302</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -13260,7 +13302,7 @@
         <v>302</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -13285,7 +13327,7 @@
         <v>302</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -13310,7 +13352,7 @@
         <v>302</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -13335,7 +13377,7 @@
         <v>302</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -13360,7 +13402,7 @@
         <v>302</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -13385,7 +13427,7 @@
         <v>302</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -13410,7 +13452,7 @@
         <v>302</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -13435,7 +13477,7 @@
         <v>302</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -13460,7 +13502,7 @@
         <v>302</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -13485,7 +13527,7 @@
         <v>302</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -13510,7 +13552,7 @@
         <v>302</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -13535,7 +13577,7 @@
         <v>302</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -13560,7 +13602,7 @@
         <v>302</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -13585,7 +13627,7 @@
         <v>302</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -13610,7 +13652,7 @@
         <v>302</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -13635,7 +13677,7 @@
         <v>302</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -13660,7 +13702,7 @@
         <v>302</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -13685,7 +13727,7 @@
         <v>302</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -13710,21 +13752,21 @@
         <v>302</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>301</v>
@@ -13735,21 +13777,21 @@
         <v>302</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>301</v>
@@ -13760,18 +13802,18 @@
         <v>302</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>763</v>
@@ -13785,21 +13827,21 @@
         <v>302</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>301</v>
@@ -13810,12 +13852,12 @@
         <v>302</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>57</v>
@@ -13835,18 +13877,18 @@
         <v>302</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>350</v>
@@ -13860,18 +13902,18 @@
         <v>302</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>543</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>545</v>
@@ -13885,18 +13927,18 @@
         <v>302</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>533</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>535</v>
@@ -13910,18 +13952,18 @@
         <v>302</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>378</v>
@@ -13939,18 +13981,18 @@
         <v>380</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>378</v>
@@ -13968,18 +14010,18 @@
         <v>380</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>378</v>
@@ -13997,18 +14039,18 @@
         <v>380</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>378</v>
@@ -14026,21 +14068,21 @@
         <v>380</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>321</v>
@@ -14051,21 +14093,21 @@
         <v>302</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C215" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>301</v>
@@ -14076,18 +14118,18 @@
         <v>302</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>525</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>527</v>
@@ -14101,21 +14143,21 @@
         <v>302</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="C217" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>321</v>
@@ -14126,18 +14168,18 @@
         <v>302</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>350</v>
@@ -14151,24 +14193,24 @@
         <v>302</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>844</v>
       </c>
       <c r="C219" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>959</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -14176,7 +14218,7 @@
         <v>302</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -14187,7 +14229,7 @@
         <v>376</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>378</v>
@@ -14205,21 +14247,21 @@
         <v>380</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>301</v>
@@ -14230,21 +14272,21 @@
         <v>302</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="C222" s="2" t="s">
+      <c r="D222" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>581</v>
@@ -14255,18 +14297,18 @@
         <v>302</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>578</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>580</v>
@@ -14280,21 +14322,21 @@
         <v>302</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>301</v>
@@ -14305,18 +14347,18 @@
         <v>302</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>557</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>559</v>
@@ -14330,18 +14372,18 @@
         <v>302</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>378</v>
@@ -14359,21 +14401,21 @@
         <v>380</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C227" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>1003</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>301</v>
@@ -14384,21 +14426,21 @@
         <v>302</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>746</v>
       </c>
       <c r="C228" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>301</v>
@@ -14409,12 +14451,12 @@
         <v>302</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>553</v>
@@ -14434,18 +14476,18 @@
         <v>302</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>672</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>674</v>
@@ -14459,18 +14501,18 @@
         <v>302</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>525</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>527</v>
@@ -14484,18 +14526,18 @@
         <v>302</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>525</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>527</v>
@@ -14509,18 +14551,18 @@
         <v>302</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>597</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>599</v>
@@ -14534,18 +14576,18 @@
         <v>302</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>313</v>
@@ -14559,21 +14601,21 @@
         <v>302</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>321</v>
@@ -14584,21 +14626,21 @@
         <v>302</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>321</v>
@@ -14609,18 +14651,18 @@
         <v>302</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>557</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>559</v>
@@ -14634,18 +14676,18 @@
         <v>302</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>566</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>568</v>
@@ -14659,21 +14701,21 @@
         <v>302</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C239" s="2" t="s">
+      <c r="D239" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>301</v>
@@ -14684,7 +14726,7 @@
         <v>302</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -14692,7 +14734,7 @@
         <v>733</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>734</v>
@@ -14709,7 +14751,7 @@
         <v>302</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -14717,7 +14759,7 @@
         <v>632</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>633</v>
@@ -14734,18 +14776,18 @@
         <v>302</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>378</v>
@@ -14763,7 +14805,7 @@
         <v>380</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -14774,7 +14816,7 @@
         <v>533</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>535</v>
@@ -14788,18 +14830,18 @@
         <v>302</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>601</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>603</v>
@@ -14813,18 +14855,18 @@
         <v>302</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>350</v>
@@ -14838,18 +14880,18 @@
         <v>302</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>371</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>828</v>
@@ -14863,18 +14905,18 @@
         <v>302</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>507</v>
@@ -14888,18 +14930,18 @@
         <v>302</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>591</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>593</v>
@@ -14913,18 +14955,18 @@
         <v>302</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>601</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>603</v>
@@ -14938,18 +14980,18 @@
         <v>302</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>617</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>559</v>
@@ -14963,18 +15005,18 @@
         <v>302</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>617</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>559</v>
@@ -14988,18 +15030,18 @@
         <v>302</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>378</v>
@@ -15017,18 +15059,18 @@
         <v>380</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>507</v>
@@ -15042,18 +15084,18 @@
         <v>302</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>378</v>
@@ -15071,18 +15113,18 @@
         <v>380</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>378</v>
@@ -15100,21 +15142,21 @@
         <v>380</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C256" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>1378</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>1379</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>508</v>
@@ -15125,18 +15167,18 @@
         <v>302</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>507</v>
@@ -15150,21 +15192,21 @@
         <v>302</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>581</v>
@@ -15175,18 +15217,18 @@
         <v>302</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>557</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>559</v>
@@ -15200,21 +15242,21 @@
         <v>302</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>301</v>
@@ -15225,18 +15267,18 @@
         <v>302</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>591</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>593</v>
@@ -15250,18 +15292,18 @@
         <v>302</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>553</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>555</v>
@@ -15275,12 +15317,12 @@
         <v>302</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>519</v>
@@ -15300,18 +15342,18 @@
         <v>302</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>605</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>607</v>
@@ -15325,18 +15367,18 @@
         <v>302</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>507</v>
@@ -15350,18 +15392,18 @@
         <v>302</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>350</v>
@@ -15375,18 +15417,18 @@
         <v>302</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>553</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>555</v>
@@ -15400,21 +15442,21 @@
         <v>302</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>301</v>
@@ -15425,18 +15467,18 @@
         <v>302</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>507</v>
@@ -15450,18 +15492,18 @@
         <v>302</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>507</v>
@@ -15475,21 +15517,21 @@
         <v>302</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="C271" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="D271" s="2" t="s">
         <v>1480</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>1481</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>581</v>
@@ -15500,18 +15542,18 @@
         <v>302</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>529</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>665</v>
@@ -15525,18 +15567,18 @@
         <v>302</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>378</v>
@@ -15554,18 +15596,18 @@
         <v>380</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>611</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>613</v>
@@ -15579,18 +15621,18 @@
         <v>302</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>378</v>
@@ -15608,18 +15650,18 @@
         <v>380</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>378</v>
@@ -15637,18 +15679,18 @@
         <v>380</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>350</v>
@@ -15662,18 +15704,18 @@
         <v>302</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>378</v>
@@ -15691,18 +15733,18 @@
         <v>380</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>350</v>
@@ -15716,18 +15758,18 @@
         <v>302</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>507</v>
@@ -15741,11 +15783,36 @@
         <v>302</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>1555</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I278"/>
+  <autoFilter ref="A1:I281"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
